--- a/Fase2/UML/Especificação de Use Cases/Ver todos os Serviços Agendados.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Ver todos os Serviços Agendados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\Especificação de Use Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDB42E1-1207-4EED-8D03-5DF075FC806F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E1C9CB-0818-4F64-8E9E-61711CEE7284}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{07A0CDD8-CFCB-43E8-B858-8877CD95C7F2}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>Proprietário devidamente autenticado</t>
   </si>
   <si>
-    <t>Pede para ver todos os serviços agendados</t>
-  </si>
-  <si>
     <t>Apresenta nomes dos pintores</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Apresenta lista de Serviços agendados</t>
+  </si>
+  <si>
+    <t>Indica que pretende ver todos os serviços agendados</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
